--- a/report/summary_CL_M30_2020-2023_0.xlsx
+++ b/report/summary_CL_M30_2020-2023_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="16">
   <si>
     <t>symbol</t>
   </si>
@@ -419,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,7 +471,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -486,86 +486,86 @@
         <v>2023</v>
       </c>
       <c r="F2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="G2">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="H2">
-        <v>0.14</v>
+        <v>0.18</v>
       </c>
       <c r="I2">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="J2">
-        <v>0.16</v>
+        <v>0.06</v>
       </c>
       <c r="K2">
-        <v>-166.872</v>
+        <v>-123.3840000000001</v>
       </c>
       <c r="L2">
-        <v>1212</v>
+        <v>1050</v>
       </c>
       <c r="M2">
         <v>-3.239999999999995</v>
       </c>
       <c r="N2">
-        <v>-170.112</v>
+        <v>-126.6240000000001</v>
       </c>
       <c r="O2">
-        <v>0.2211221122112211</v>
+        <v>0.3019047619047619</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>2020</v>
+      </c>
+      <c r="E3">
+        <v>2023</v>
+      </c>
+      <c r="F3">
+        <v>90</v>
+      </c>
+      <c r="G3">
+        <v>3.7</v>
+      </c>
+      <c r="H3">
+        <v>0.2</v>
+      </c>
+      <c r="I3">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3">
-        <v>2020</v>
-      </c>
-      <c r="E3">
-        <v>2023</v>
-      </c>
-      <c r="F3">
-        <v>20</v>
-      </c>
-      <c r="G3">
-        <v>2.4</v>
-      </c>
-      <c r="H3">
-        <v>0.18</v>
-      </c>
-      <c r="I3">
-        <v>0.14</v>
-      </c>
       <c r="J3">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>-295.9899999999994</v>
+        <v>-140.4230000000001</v>
       </c>
       <c r="L3">
-        <v>1997</v>
+        <v>1000</v>
       </c>
       <c r="M3">
-        <v>-2.689999999999998</v>
+        <v>-4.11999999999999</v>
       </c>
       <c r="N3">
-        <v>-298.6799999999994</v>
+        <v>-144.5430000000001</v>
       </c>
       <c r="O3">
-        <v>0.2939409113670506</v>
+        <v>0.131</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -580,39 +580,39 @@
         <v>2023</v>
       </c>
       <c r="F4">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="G4">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="H4">
+        <v>0.14</v>
+      </c>
+      <c r="I4">
         <v>0.16</v>
-      </c>
-      <c r="I4">
-        <v>0.14</v>
       </c>
       <c r="J4">
         <v>0.06</v>
       </c>
       <c r="K4">
-        <v>-339.548</v>
+        <v>-151.7549999999997</v>
       </c>
       <c r="L4">
-        <v>2213</v>
+        <v>1166</v>
       </c>
       <c r="M4">
-        <v>-2.689999999999998</v>
+        <v>-3.239999999999995</v>
       </c>
       <c r="N4">
-        <v>-342.238</v>
+        <v>-154.9949999999997</v>
       </c>
       <c r="O4">
-        <v>0.2553095345684591</v>
+        <v>0.2572898799313894</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -627,34 +627,2572 @@
         <v>2023</v>
       </c>
       <c r="F5">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G5">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="H5">
-        <v>0.04</v>
+        <v>0.14</v>
       </c>
       <c r="I5">
         <v>0.2</v>
       </c>
       <c r="J5">
+        <v>0.08</v>
+      </c>
+      <c r="K5">
+        <v>-155.1020000000001</v>
+      </c>
+      <c r="L5">
+        <v>1148</v>
+      </c>
+      <c r="M5">
+        <v>-3.239999999999995</v>
+      </c>
+      <c r="N5">
+        <v>-158.342</v>
+      </c>
+      <c r="O5">
+        <v>0.2482578397212543</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>2020</v>
+      </c>
+      <c r="E6">
+        <v>2023</v>
+      </c>
+      <c r="F6">
+        <v>70</v>
+      </c>
+      <c r="G6">
+        <v>3.2</v>
+      </c>
+      <c r="H6">
         <v>0.16</v>
       </c>
-      <c r="K5">
+      <c r="I6">
+        <v>0.2</v>
+      </c>
+      <c r="J6">
+        <v>0.16</v>
+      </c>
+      <c r="K6">
+        <v>-158.5770000000003</v>
+      </c>
+      <c r="L6">
+        <v>1234</v>
+      </c>
+      <c r="M6">
+        <v>-3.239999999999995</v>
+      </c>
+      <c r="N6">
+        <v>-161.8170000000003</v>
+      </c>
+      <c r="O6">
+        <v>0.2528363047001621</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>2020</v>
+      </c>
+      <c r="E7">
+        <v>2023</v>
+      </c>
+      <c r="F7">
+        <v>60</v>
+      </c>
+      <c r="G7">
+        <v>3.2</v>
+      </c>
+      <c r="H7">
+        <v>0.14</v>
+      </c>
+      <c r="I7">
+        <v>0.2</v>
+      </c>
+      <c r="J7">
+        <v>0.16</v>
+      </c>
+      <c r="K7">
+        <v>-166.872</v>
+      </c>
+      <c r="L7">
+        <v>1212</v>
+      </c>
+      <c r="M7">
+        <v>-3.239999999999995</v>
+      </c>
+      <c r="N7">
+        <v>-170.112</v>
+      </c>
+      <c r="O7">
+        <v>0.2211221122112211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>2020</v>
+      </c>
+      <c r="E8">
+        <v>2023</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>0.16</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>-177.2240000000001</v>
+      </c>
+      <c r="L8">
+        <v>1302</v>
+      </c>
+      <c r="M8">
+        <v>-2.655000000000001</v>
+      </c>
+      <c r="N8">
+        <v>-179.8790000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.1267281105990783</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>2020</v>
+      </c>
+      <c r="E9">
+        <v>2023</v>
+      </c>
+      <c r="F9">
+        <v>50</v>
+      </c>
+      <c r="G9">
+        <v>3.9</v>
+      </c>
+      <c r="H9">
+        <v>0.04</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>-188.672</v>
+      </c>
+      <c r="L9">
+        <v>892</v>
+      </c>
+      <c r="M9">
+        <v>-4.11999999999999</v>
+      </c>
+      <c r="N9">
+        <v>-192.792</v>
+      </c>
+      <c r="O9">
+        <v>0.03139013452914798</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>2020</v>
+      </c>
+      <c r="E10">
+        <v>2023</v>
+      </c>
+      <c r="F10">
+        <v>80</v>
+      </c>
+      <c r="G10">
+        <v>3.600000000000001</v>
+      </c>
+      <c r="H10">
+        <v>0.1</v>
+      </c>
+      <c r="I10">
+        <v>0.14</v>
+      </c>
+      <c r="J10">
+        <v>0.08</v>
+      </c>
+      <c r="K10">
+        <v>-189.9850000000003</v>
+      </c>
+      <c r="L10">
+        <v>1060</v>
+      </c>
+      <c r="M10">
+        <v>-4.11999999999999</v>
+      </c>
+      <c r="N10">
+        <v>-194.1050000000003</v>
+      </c>
+      <c r="O10">
+        <v>0.1886792452830189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="1">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>2020</v>
+      </c>
+      <c r="E11">
+        <v>2023</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>2.8</v>
+      </c>
+      <c r="H11">
+        <v>0.2</v>
+      </c>
+      <c r="I11">
+        <v>0.12</v>
+      </c>
+      <c r="J11">
+        <v>0.02</v>
+      </c>
+      <c r="K11">
+        <v>-197.2990000000001</v>
+      </c>
+      <c r="L11">
+        <v>1616</v>
+      </c>
+      <c r="M11">
+        <v>-2.280000000000001</v>
+      </c>
+      <c r="N11">
+        <v>-199.5790000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.3310643564356436</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>2020</v>
+      </c>
+      <c r="E12">
+        <v>2023</v>
+      </c>
+      <c r="F12">
+        <v>50</v>
+      </c>
+      <c r="G12">
+        <v>3.4</v>
+      </c>
+      <c r="H12">
+        <v>0.16</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>-201.4850000000002</v>
+      </c>
+      <c r="L12">
+        <v>1116</v>
+      </c>
+      <c r="M12">
+        <v>-3.239999999999995</v>
+      </c>
+      <c r="N12">
+        <v>-204.7250000000003</v>
+      </c>
+      <c r="O12">
+        <v>0.1146953405017921</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="1">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>2020</v>
+      </c>
+      <c r="E13">
+        <v>2023</v>
+      </c>
+      <c r="F13">
+        <v>100</v>
+      </c>
+      <c r="G13">
+        <v>3.5</v>
+      </c>
+      <c r="H13">
+        <v>0.04</v>
+      </c>
+      <c r="I13">
+        <v>0.18</v>
+      </c>
+      <c r="J13">
+        <v>0.04</v>
+      </c>
+      <c r="K13">
+        <v>-208.6790000000005</v>
+      </c>
+      <c r="L13">
+        <v>1050</v>
+      </c>
+      <c r="M13">
+        <v>-3.239999999999995</v>
+      </c>
+      <c r="N13">
+        <v>-211.9190000000004</v>
+      </c>
+      <c r="O13">
+        <v>0.1076190476190476</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="1">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>2020</v>
+      </c>
+      <c r="E14">
+        <v>2023</v>
+      </c>
+      <c r="F14">
+        <v>60</v>
+      </c>
+      <c r="G14">
+        <v>3.100000000000001</v>
+      </c>
+      <c r="H14">
+        <v>0.1</v>
+      </c>
+      <c r="I14">
+        <v>0.18</v>
+      </c>
+      <c r="J14">
+        <v>0.06</v>
+      </c>
+      <c r="K14">
+        <v>-209.3370000000003</v>
+      </c>
+      <c r="L14">
+        <v>1264</v>
+      </c>
+      <c r="M14">
+        <v>-3.239999999999995</v>
+      </c>
+      <c r="N14">
+        <v>-212.5770000000003</v>
+      </c>
+      <c r="O14">
+        <v>0.1977848101265823</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="1">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>2020</v>
+      </c>
+      <c r="E15">
+        <v>2023</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>3.5</v>
+      </c>
+      <c r="H15">
+        <v>0.06</v>
+      </c>
+      <c r="I15">
+        <v>0.18</v>
+      </c>
+      <c r="J15">
+        <v>0.04</v>
+      </c>
+      <c r="K15">
+        <v>-210.4889999999998</v>
+      </c>
+      <c r="L15">
+        <v>1183</v>
+      </c>
+      <c r="M15">
+        <v>-4.11999999999999</v>
+      </c>
+      <c r="N15">
+        <v>-214.6089999999998</v>
+      </c>
+      <c r="O15">
+        <v>0.1335587489433643</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="1">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>2020</v>
+      </c>
+      <c r="E16">
+        <v>2023</v>
+      </c>
+      <c r="F16">
+        <v>70</v>
+      </c>
+      <c r="G16">
+        <v>2.7</v>
+      </c>
+      <c r="H16">
+        <v>0.2</v>
+      </c>
+      <c r="I16">
+        <v>0.14</v>
+      </c>
+      <c r="J16">
+        <v>0.06</v>
+      </c>
+      <c r="K16">
+        <v>-217.3130000000004</v>
+      </c>
+      <c r="L16">
+        <v>1578</v>
+      </c>
+      <c r="M16">
+        <v>-2.59</v>
+      </c>
+      <c r="N16">
+        <v>-219.9030000000004</v>
+      </c>
+      <c r="O16">
+        <v>0.2946768060836502</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="1">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>2020</v>
+      </c>
+      <c r="E17">
+        <v>2023</v>
+      </c>
+      <c r="F17">
+        <v>60</v>
+      </c>
+      <c r="G17">
+        <v>3.4</v>
+      </c>
+      <c r="H17">
+        <v>0.04</v>
+      </c>
+      <c r="I17">
+        <v>0.16</v>
+      </c>
+      <c r="J17">
+        <v>0.04</v>
+      </c>
+      <c r="K17">
+        <v>-230.9730000000006</v>
+      </c>
+      <c r="L17">
+        <v>1112</v>
+      </c>
+      <c r="M17">
+        <v>-3.239999999999995</v>
+      </c>
+      <c r="N17">
+        <v>-234.2130000000006</v>
+      </c>
+      <c r="O17">
+        <v>0.1043165467625899</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="1">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18">
+        <v>2020</v>
+      </c>
+      <c r="E18">
+        <v>2023</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>3.3</v>
+      </c>
+      <c r="H18">
+        <v>0.06</v>
+      </c>
+      <c r="I18">
+        <v>0.14</v>
+      </c>
+      <c r="J18">
+        <v>0.08</v>
+      </c>
+      <c r="K18">
+        <v>-233.3139999999999</v>
+      </c>
+      <c r="L18">
+        <v>1281</v>
+      </c>
+      <c r="M18">
+        <v>-4.11999999999999</v>
+      </c>
+      <c r="N18">
+        <v>-237.4339999999999</v>
+      </c>
+      <c r="O18">
+        <v>0.1194379391100703</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="1">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <v>2020</v>
+      </c>
+      <c r="E19">
+        <v>2023</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>2.7</v>
+      </c>
+      <c r="H19">
+        <v>0.16</v>
+      </c>
+      <c r="I19">
+        <v>0.12</v>
+      </c>
+      <c r="J19">
+        <v>0.08</v>
+      </c>
+      <c r="K19">
+        <v>-244.3020000000001</v>
+      </c>
+      <c r="L19">
+        <v>1716</v>
+      </c>
+      <c r="M19">
+        <v>-2.59</v>
+      </c>
+      <c r="N19">
+        <v>-246.8920000000001</v>
+      </c>
+      <c r="O19">
+        <v>0.2610722610722611</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="1">
+        <v>49</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20">
+        <v>2020</v>
+      </c>
+      <c r="E20">
+        <v>2023</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <v>2.9</v>
+      </c>
+      <c r="H20">
+        <v>0.08</v>
+      </c>
+      <c r="I20">
+        <v>0.08</v>
+      </c>
+      <c r="J20">
+        <v>0.02</v>
+      </c>
+      <c r="K20">
+        <v>-251.1810000000002</v>
+      </c>
+      <c r="L20">
+        <v>1544</v>
+      </c>
+      <c r="M20">
+        <v>-1.870000000000005</v>
+      </c>
+      <c r="N20">
+        <v>-253.0510000000002</v>
+      </c>
+      <c r="O20">
+        <v>0.1852331606217616</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="1">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21">
+        <v>2020</v>
+      </c>
+      <c r="E21">
+        <v>2023</v>
+      </c>
+      <c r="F21">
+        <v>40</v>
+      </c>
+      <c r="G21">
+        <v>2.9</v>
+      </c>
+      <c r="H21">
+        <v>0.1</v>
+      </c>
+      <c r="I21">
+        <v>0.2</v>
+      </c>
+      <c r="J21">
+        <v>0.1</v>
+      </c>
+      <c r="K21">
+        <v>-256.1000000000004</v>
+      </c>
+      <c r="L21">
+        <v>1430</v>
+      </c>
+      <c r="M21">
+        <v>-3.239999999999995</v>
+      </c>
+      <c r="N21">
+        <v>-259.3400000000004</v>
+      </c>
+      <c r="O21">
+        <v>0.1874125874125874</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="1">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22">
+        <v>2020</v>
+      </c>
+      <c r="E22">
+        <v>2023</v>
+      </c>
+      <c r="F22">
+        <v>100</v>
+      </c>
+      <c r="G22">
+        <v>2.9</v>
+      </c>
+      <c r="H22">
+        <v>0.08</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>-261.3530000000003</v>
+      </c>
+      <c r="L22">
+        <v>1384</v>
+      </c>
+      <c r="M22">
+        <v>-2.59</v>
+      </c>
+      <c r="N22">
+        <v>-263.9430000000003</v>
+      </c>
+      <c r="O22">
+        <v>0.06936416184971098</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="1">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23">
+        <v>2020</v>
+      </c>
+      <c r="E23">
+        <v>2023</v>
+      </c>
+      <c r="F23">
+        <v>100</v>
+      </c>
+      <c r="G23">
+        <v>2.9</v>
+      </c>
+      <c r="H23">
+        <v>0.04</v>
+      </c>
+      <c r="I23">
+        <v>0.1</v>
+      </c>
+      <c r="J23">
+        <v>0.04</v>
+      </c>
+      <c r="K23">
+        <v>-293.9069999999999</v>
+      </c>
+      <c r="L23">
+        <v>1384</v>
+      </c>
+      <c r="M23">
+        <v>-2.59</v>
+      </c>
+      <c r="N23">
+        <v>-296.4969999999998</v>
+      </c>
+      <c r="O23">
+        <v>0.1004335260115607</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="1">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24">
+        <v>2020</v>
+      </c>
+      <c r="E24">
+        <v>2023</v>
+      </c>
+      <c r="F24">
+        <v>20</v>
+      </c>
+      <c r="G24">
+        <v>2.4</v>
+      </c>
+      <c r="H24">
+        <v>0.18</v>
+      </c>
+      <c r="I24">
+        <v>0.14</v>
+      </c>
+      <c r="J24">
+        <v>0.02</v>
+      </c>
+      <c r="K24">
+        <v>-295.9899999999994</v>
+      </c>
+      <c r="L24">
+        <v>1997</v>
+      </c>
+      <c r="M24">
+        <v>-2.689999999999998</v>
+      </c>
+      <c r="N24">
+        <v>-298.6799999999994</v>
+      </c>
+      <c r="O24">
+        <v>0.2939409113670506</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="1">
+        <v>44</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25">
+        <v>2020</v>
+      </c>
+      <c r="E25">
+        <v>2023</v>
+      </c>
+      <c r="F25">
+        <v>100</v>
+      </c>
+      <c r="G25">
+        <v>2.5</v>
+      </c>
+      <c r="H25">
+        <v>0.12</v>
+      </c>
+      <c r="I25">
+        <v>0.16</v>
+      </c>
+      <c r="J25">
+        <v>0.06</v>
+      </c>
+      <c r="K25">
+        <v>-296.9969999999998</v>
+      </c>
+      <c r="L25">
+        <v>1736</v>
+      </c>
+      <c r="M25">
+        <v>-2.59</v>
+      </c>
+      <c r="N25">
+        <v>-299.5869999999998</v>
+      </c>
+      <c r="O25">
+        <v>0.2223502304147466</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="1">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26">
+        <v>2020</v>
+      </c>
+      <c r="E26">
+        <v>2023</v>
+      </c>
+      <c r="F26">
+        <v>90</v>
+      </c>
+      <c r="G26">
+        <v>2.3</v>
+      </c>
+      <c r="H26">
+        <v>0.16</v>
+      </c>
+      <c r="I26">
+        <v>0.14</v>
+      </c>
+      <c r="J26">
+        <v>0.1</v>
+      </c>
+      <c r="K26">
+        <v>-316.5409999999997</v>
+      </c>
+      <c r="L26">
+        <v>1968</v>
+      </c>
+      <c r="M26">
+        <v>-2.689999999999998</v>
+      </c>
+      <c r="N26">
+        <v>-319.2309999999997</v>
+      </c>
+      <c r="O26">
+        <v>0.2484756097560976</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="1">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27">
+        <v>2020</v>
+      </c>
+      <c r="E27">
+        <v>2023</v>
+      </c>
+      <c r="F27">
+        <v>70</v>
+      </c>
+      <c r="G27">
+        <v>2.1</v>
+      </c>
+      <c r="H27">
+        <v>0.16</v>
+      </c>
+      <c r="I27">
+        <v>0.14</v>
+      </c>
+      <c r="J27">
+        <v>0.06</v>
+      </c>
+      <c r="K27">
+        <v>-339.548</v>
+      </c>
+      <c r="L27">
+        <v>2213</v>
+      </c>
+      <c r="M27">
+        <v>-2.689999999999998</v>
+      </c>
+      <c r="N27">
+        <v>-342.238</v>
+      </c>
+      <c r="O27">
+        <v>0.2553095345684591</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="1">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28">
+        <v>2020</v>
+      </c>
+      <c r="E28">
+        <v>2023</v>
+      </c>
+      <c r="F28">
+        <v>30</v>
+      </c>
+      <c r="G28">
+        <v>2.9</v>
+      </c>
+      <c r="H28">
+        <v>0.04</v>
+      </c>
+      <c r="I28">
+        <v>0.14</v>
+      </c>
+      <c r="J28">
+        <v>0.02</v>
+      </c>
+      <c r="K28">
+        <v>-348.1649999999997</v>
+      </c>
+      <c r="L28">
+        <v>1528</v>
+      </c>
+      <c r="M28">
+        <v>-2.689999999999998</v>
+      </c>
+      <c r="N28">
+        <v>-350.8549999999997</v>
+      </c>
+      <c r="O28">
+        <v>0.09096858638743456</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="1">
+        <v>53</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29">
+        <v>2020</v>
+      </c>
+      <c r="E29">
+        <v>2023</v>
+      </c>
+      <c r="F29">
+        <v>40</v>
+      </c>
+      <c r="G29">
+        <v>2.5</v>
+      </c>
+      <c r="H29">
+        <v>0.08</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>-350.8260000000006</v>
+      </c>
+      <c r="L29">
+        <v>1803</v>
+      </c>
+      <c r="M29">
+        <v>-2.689999999999998</v>
+      </c>
+      <c r="N29">
+        <v>-353.5160000000006</v>
+      </c>
+      <c r="O29">
+        <v>0.07487520798668885</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="1">
+        <v>19</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30">
+        <v>2020</v>
+      </c>
+      <c r="E30">
+        <v>2023</v>
+      </c>
+      <c r="F30">
+        <v>10</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>0.2</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>-360.9699999999995</v>
+      </c>
+      <c r="L30">
+        <v>2570</v>
+      </c>
+      <c r="M30">
+        <v>-2.689999999999998</v>
+      </c>
+      <c r="N30">
+        <v>-363.6599999999995</v>
+      </c>
+      <c r="O30">
+        <v>0.1669260700389105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="1">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31">
+        <v>2020</v>
+      </c>
+      <c r="E31">
+        <v>2023</v>
+      </c>
+      <c r="F31">
+        <v>20</v>
+      </c>
+      <c r="G31">
+        <v>2.4</v>
+      </c>
+      <c r="H31">
+        <v>0.1</v>
+      </c>
+      <c r="I31">
+        <v>0.08</v>
+      </c>
+      <c r="J31">
+        <v>0.06</v>
+      </c>
+      <c r="K31">
+        <v>-365.0399999999995</v>
+      </c>
+      <c r="L31">
+        <v>1997</v>
+      </c>
+      <c r="M31">
+        <v>-2.689999999999998</v>
+      </c>
+      <c r="N31">
+        <v>-367.7299999999995</v>
+      </c>
+      <c r="O31">
+        <v>0.185277916875313</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="1">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32">
+        <v>2020</v>
+      </c>
+      <c r="E32">
+        <v>2023</v>
+      </c>
+      <c r="F32">
+        <v>100</v>
+      </c>
+      <c r="G32">
+        <v>2.3</v>
+      </c>
+      <c r="H32">
+        <v>0.06</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>-392.4789999999997</v>
+      </c>
+      <c r="L32">
+        <v>1936</v>
+      </c>
+      <c r="M32">
+        <v>-2.689999999999998</v>
+      </c>
+      <c r="N32">
+        <v>-395.1689999999997</v>
+      </c>
+      <c r="O32">
+        <v>0.05526859504132232</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="1">
+        <v>10</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33">
+        <v>2020</v>
+      </c>
+      <c r="E33">
+        <v>2023</v>
+      </c>
+      <c r="F33">
+        <v>20</v>
+      </c>
+      <c r="G33">
+        <v>1.7</v>
+      </c>
+      <c r="H33">
+        <v>0.2</v>
+      </c>
+      <c r="I33">
+        <v>0.18</v>
+      </c>
+      <c r="J33">
+        <v>0.16</v>
+      </c>
+      <c r="K33">
+        <v>-434.5849999999995</v>
+      </c>
+      <c r="L33">
+        <v>3148</v>
+      </c>
+      <c r="M33">
+        <v>-2.609999999999999</v>
+      </c>
+      <c r="N33">
+        <v>-437.1949999999995</v>
+      </c>
+      <c r="O33">
+        <v>0.264294790343075</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="1">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34">
+        <v>2020</v>
+      </c>
+      <c r="E34">
+        <v>2023</v>
+      </c>
+      <c r="F34">
+        <v>10</v>
+      </c>
+      <c r="G34">
+        <v>2.1</v>
+      </c>
+      <c r="H34">
+        <v>0.04</v>
+      </c>
+      <c r="I34">
+        <v>0.18</v>
+      </c>
+      <c r="J34">
+        <v>0.12</v>
+      </c>
+      <c r="K34">
+        <v>-469.9240000000009</v>
+      </c>
+      <c r="L34">
+        <v>2390</v>
+      </c>
+      <c r="M34">
+        <v>-2.689999999999998</v>
+      </c>
+      <c r="N34">
+        <v>-472.6140000000009</v>
+      </c>
+      <c r="O34">
+        <v>0.07991631799163181</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="1">
+        <v>13</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35">
+        <v>2020</v>
+      </c>
+      <c r="E35">
+        <v>2023</v>
+      </c>
+      <c r="F35">
+        <v>70</v>
+      </c>
+      <c r="G35">
+        <v>1.8</v>
+      </c>
+      <c r="H35">
+        <v>0.08</v>
+      </c>
+      <c r="I35">
+        <v>0.12</v>
+      </c>
+      <c r="J35">
+        <v>0.06</v>
+      </c>
+      <c r="K35">
+        <v>-493.6880000000006</v>
+      </c>
+      <c r="L35">
+        <v>2729</v>
+      </c>
+      <c r="M35">
+        <v>-2.689999999999998</v>
+      </c>
+      <c r="N35">
+        <v>-496.3780000000006</v>
+      </c>
+      <c r="O35">
+        <v>0.1579333089043606</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="1">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36">
+        <v>2020</v>
+      </c>
+      <c r="E36">
+        <v>2023</v>
+      </c>
+      <c r="F36">
+        <v>30</v>
+      </c>
+      <c r="G36">
+        <v>1.5</v>
+      </c>
+      <c r="H36">
+        <v>0.2</v>
+      </c>
+      <c r="I36">
+        <v>0.14</v>
+      </c>
+      <c r="J36">
+        <v>0.12</v>
+      </c>
+      <c r="K36">
+        <v>-500.2499999999991</v>
+      </c>
+      <c r="L36">
+        <v>3631</v>
+      </c>
+      <c r="M36">
+        <v>-2.300000000000001</v>
+      </c>
+      <c r="N36">
+        <v>-502.5499999999991</v>
+      </c>
+      <c r="O36">
+        <v>0.2718259432663178</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="1">
+        <v>56</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37">
+        <v>2020</v>
+      </c>
+      <c r="E37">
+        <v>2023</v>
+      </c>
+      <c r="F37">
+        <v>30</v>
+      </c>
+      <c r="G37">
+        <v>1.8</v>
+      </c>
+      <c r="H37">
+        <v>0.1</v>
+      </c>
+      <c r="I37">
+        <v>0.16</v>
+      </c>
+      <c r="J37">
+        <v>0.02</v>
+      </c>
+      <c r="K37">
+        <v>-503.853</v>
+      </c>
+      <c r="L37">
+        <v>2870</v>
+      </c>
+      <c r="M37">
+        <v>-2.609999999999999</v>
+      </c>
+      <c r="N37">
+        <v>-506.463</v>
+      </c>
+      <c r="O37">
+        <v>0.1954703832752613</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="1">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38">
+        <v>2020</v>
+      </c>
+      <c r="E38">
+        <v>2023</v>
+      </c>
+      <c r="F38">
+        <v>10</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>0.04</v>
+      </c>
+      <c r="I38">
+        <v>0.16</v>
+      </c>
+      <c r="J38">
+        <v>0.02</v>
+      </c>
+      <c r="K38">
+        <v>-504.213000000001</v>
+      </c>
+      <c r="L38">
+        <v>2570</v>
+      </c>
+      <c r="M38">
+        <v>-2.689999999999998</v>
+      </c>
+      <c r="N38">
+        <v>-506.903000000001</v>
+      </c>
+      <c r="O38">
+        <v>0.09494163424124513</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="1">
+        <v>50</v>
+      </c>
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39">
+        <v>2020</v>
+      </c>
+      <c r="E39">
+        <v>2023</v>
+      </c>
+      <c r="F39">
+        <v>100</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <v>0.02</v>
+      </c>
+      <c r="I39">
+        <v>0.1</v>
+      </c>
+      <c r="J39">
+        <v>0.08</v>
+      </c>
+      <c r="K39">
+        <v>-516.2780000000005</v>
+      </c>
+      <c r="L39">
+        <v>2311</v>
+      </c>
+      <c r="M39">
+        <v>-2.689999999999998</v>
+      </c>
+      <c r="N39">
+        <v>-518.9680000000005</v>
+      </c>
+      <c r="O39">
+        <v>0.04803115534400693</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="1">
+        <v>28</v>
+      </c>
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40">
+        <v>2020</v>
+      </c>
+      <c r="E40">
+        <v>2023</v>
+      </c>
+      <c r="F40">
+        <v>100</v>
+      </c>
+      <c r="G40">
+        <v>1.3</v>
+      </c>
+      <c r="H40">
+        <v>0.2</v>
+      </c>
+      <c r="I40">
+        <v>0.1</v>
+      </c>
+      <c r="J40">
+        <v>0.06</v>
+      </c>
+      <c r="K40">
+        <v>-518.7050000000003</v>
+      </c>
+      <c r="L40">
+        <v>4016</v>
+      </c>
+      <c r="M40">
+        <v>-2.609999999999999</v>
+      </c>
+      <c r="N40">
+        <v>-521.3150000000003</v>
+      </c>
+      <c r="O40">
+        <v>0.3002988047808765</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="1">
+        <v>36</v>
+      </c>
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41">
+        <v>2020</v>
+      </c>
+      <c r="E41">
+        <v>2023</v>
+      </c>
+      <c r="F41">
+        <v>10</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41">
+        <v>0.02</v>
+      </c>
+      <c r="I41">
+        <v>0.1</v>
+      </c>
+      <c r="J41">
+        <v>0.06</v>
+      </c>
+      <c r="K41">
+        <v>-531.3600000000015</v>
+      </c>
+      <c r="L41">
+        <v>2570</v>
+      </c>
+      <c r="M41">
+        <v>-2.689999999999998</v>
+      </c>
+      <c r="N41">
+        <v>-534.0500000000015</v>
+      </c>
+      <c r="O41">
+        <v>0.05214007782101168</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="1">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42">
+        <v>2020</v>
+      </c>
+      <c r="E42">
+        <v>2023</v>
+      </c>
+      <c r="F42">
+        <v>50</v>
+      </c>
+      <c r="G42">
+        <v>1.3</v>
+      </c>
+      <c r="H42">
+        <v>0.18</v>
+      </c>
+      <c r="I42">
+        <v>0.2</v>
+      </c>
+      <c r="J42">
+        <v>0.12</v>
+      </c>
+      <c r="K42">
+        <v>-552.489</v>
+      </c>
+      <c r="L42">
+        <v>4030</v>
+      </c>
+      <c r="M42">
+        <v>-2.300000000000001</v>
+      </c>
+      <c r="N42">
+        <v>-554.789</v>
+      </c>
+      <c r="O42">
+        <v>0.2558312655086848</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="1">
+        <v>38</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43">
+        <v>2020</v>
+      </c>
+      <c r="E43">
+        <v>2023</v>
+      </c>
+      <c r="F43">
+        <v>10</v>
+      </c>
+      <c r="G43">
+        <v>1.2</v>
+      </c>
+      <c r="H43">
+        <v>0.18</v>
+      </c>
+      <c r="I43">
+        <v>0.2</v>
+      </c>
+      <c r="J43">
+        <v>0.08</v>
+      </c>
+      <c r="K43">
+        <v>-556.2710000000025</v>
+      </c>
+      <c r="L43">
+        <v>4652</v>
+      </c>
+      <c r="M43">
+        <v>-2.440000000000001</v>
+      </c>
+      <c r="N43">
+        <v>-558.7110000000025</v>
+      </c>
+      <c r="O43">
+        <v>0.2854686156491831</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="1">
+        <v>31</v>
+      </c>
+      <c r="B44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44">
+        <v>2020</v>
+      </c>
+      <c r="E44">
+        <v>2023</v>
+      </c>
+      <c r="F44">
+        <v>20</v>
+      </c>
+      <c r="G44">
+        <v>1.6</v>
+      </c>
+      <c r="H44">
+        <v>0.12</v>
+      </c>
+      <c r="I44">
+        <v>0.14</v>
+      </c>
+      <c r="J44">
+        <v>0.12</v>
+      </c>
+      <c r="K44">
+        <v>-569.2920000000008</v>
+      </c>
+      <c r="L44">
+        <v>3386</v>
+      </c>
+      <c r="M44">
+        <v>-2.609999999999999</v>
+      </c>
+      <c r="N44">
+        <v>-571.9020000000008</v>
+      </c>
+      <c r="O44">
+        <v>0.1940342587123449</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="1">
+        <v>57</v>
+      </c>
+      <c r="B45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45">
+        <v>2020</v>
+      </c>
+      <c r="E45">
+        <v>2023</v>
+      </c>
+      <c r="F45">
+        <v>40</v>
+      </c>
+      <c r="G45">
+        <v>1.8</v>
+      </c>
+      <c r="H45">
+        <v>0.04</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>-587.3130000000002</v>
+      </c>
+      <c r="L45">
+        <v>2771</v>
+      </c>
+      <c r="M45">
+        <v>-2.689999999999998</v>
+      </c>
+      <c r="N45">
+        <v>-590.0030000000002</v>
+      </c>
+      <c r="O45">
+        <v>0.05304944063514976</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="1">
+        <v>37</v>
+      </c>
+      <c r="B46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46">
+        <v>2020</v>
+      </c>
+      <c r="E46">
+        <v>2023</v>
+      </c>
+      <c r="F46">
+        <v>70</v>
+      </c>
+      <c r="G46">
+        <v>1.1</v>
+      </c>
+      <c r="H46">
+        <v>0.2</v>
+      </c>
+      <c r="I46">
+        <v>0.06</v>
+      </c>
+      <c r="J46">
+        <v>0.04</v>
+      </c>
+      <c r="K46">
+        <v>-613.7500000000015</v>
+      </c>
+      <c r="L46">
+        <v>4882</v>
+      </c>
+      <c r="M46">
+        <v>-2.300000000000001</v>
+      </c>
+      <c r="N46">
+        <v>-616.0500000000014</v>
+      </c>
+      <c r="O46">
+        <v>0.3045882834903728</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="1">
+        <v>2</v>
+      </c>
+      <c r="B47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47">
+        <v>2020</v>
+      </c>
+      <c r="E47">
+        <v>2023</v>
+      </c>
+      <c r="F47">
+        <v>30</v>
+      </c>
+      <c r="G47">
+        <v>1.7</v>
+      </c>
+      <c r="H47">
+        <v>0.04</v>
+      </c>
+      <c r="I47">
+        <v>0.2</v>
+      </c>
+      <c r="J47">
+        <v>0.16</v>
+      </c>
+      <c r="K47">
         <v>-625.3170000000007</v>
       </c>
-      <c r="L5">
+      <c r="L47">
         <v>3082</v>
       </c>
-      <c r="M5">
+      <c r="M47">
         <v>-2.59</v>
       </c>
-      <c r="N5">
+      <c r="N47">
         <v>-627.9070000000007</v>
       </c>
-      <c r="O5">
+      <c r="O47">
         <v>0.08436080467229072</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="1">
+        <v>8</v>
+      </c>
+      <c r="B48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48">
+        <v>2020</v>
+      </c>
+      <c r="E48">
+        <v>2023</v>
+      </c>
+      <c r="F48">
+        <v>50</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>0.2</v>
+      </c>
+      <c r="I48">
+        <v>0.08</v>
+      </c>
+      <c r="J48">
+        <v>0.02</v>
+      </c>
+      <c r="K48">
+        <v>-650.7220000000026</v>
+      </c>
+      <c r="L48">
+        <v>5305</v>
+      </c>
+      <c r="M48">
+        <v>-2.300000000000001</v>
+      </c>
+      <c r="N48">
+        <v>-653.0220000000025</v>
+      </c>
+      <c r="O48">
+        <v>0.3181903864278982</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="1">
+        <v>21</v>
+      </c>
+      <c r="B49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49">
+        <v>2020</v>
+      </c>
+      <c r="E49">
+        <v>2023</v>
+      </c>
+      <c r="F49">
+        <v>100</v>
+      </c>
+      <c r="G49">
+        <v>1.1</v>
+      </c>
+      <c r="H49">
+        <v>0.1</v>
+      </c>
+      <c r="I49">
+        <v>0.06</v>
+      </c>
+      <c r="J49">
+        <v>0.02</v>
+      </c>
+      <c r="K49">
+        <v>-751.5039999999989</v>
+      </c>
+      <c r="L49">
+        <v>4822</v>
+      </c>
+      <c r="M49">
+        <v>-2.280000000000001</v>
+      </c>
+      <c r="N49">
+        <v>-753.7839999999989</v>
+      </c>
+      <c r="O49">
+        <v>0.2067606802156781</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="1">
+        <v>20</v>
+      </c>
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50">
+        <v>2020</v>
+      </c>
+      <c r="E50">
+        <v>2023</v>
+      </c>
+      <c r="F50">
+        <v>80</v>
+      </c>
+      <c r="G50">
+        <v>0.7</v>
+      </c>
+      <c r="H50">
+        <v>0.18</v>
+      </c>
+      <c r="I50">
+        <v>0.2</v>
+      </c>
+      <c r="J50">
+        <v>0.08</v>
+      </c>
+      <c r="K50">
+        <v>-819.3959999999998</v>
+      </c>
+      <c r="L50">
+        <v>7245</v>
+      </c>
+      <c r="M50">
+        <v>-2.594999999999999</v>
+      </c>
+      <c r="N50">
+        <v>-821.9909999999999</v>
+      </c>
+      <c r="O50">
+        <v>0.2916494133885438</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="1">
+        <v>35</v>
+      </c>
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51">
+        <v>2020</v>
+      </c>
+      <c r="E51">
+        <v>2023</v>
+      </c>
+      <c r="F51">
+        <v>70</v>
+      </c>
+      <c r="G51">
+        <v>1.1</v>
+      </c>
+      <c r="H51">
+        <v>0.02</v>
+      </c>
+      <c r="I51">
+        <v>0.2</v>
+      </c>
+      <c r="J51">
+        <v>0.14</v>
+      </c>
+      <c r="K51">
+        <v>-981.7459999999965</v>
+      </c>
+      <c r="L51">
+        <v>4882</v>
+      </c>
+      <c r="M51">
+        <v>-2.280000000000001</v>
+      </c>
+      <c r="N51">
+        <v>-984.0259999999964</v>
+      </c>
+      <c r="O51">
+        <v>0.0497746825071692</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="1">
+        <v>14</v>
+      </c>
+      <c r="B52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52">
+        <v>2020</v>
+      </c>
+      <c r="E52">
+        <v>2023</v>
+      </c>
+      <c r="F52">
+        <v>10</v>
+      </c>
+      <c r="G52">
+        <v>0.8</v>
+      </c>
+      <c r="H52">
+        <v>0.06</v>
+      </c>
+      <c r="I52">
+        <v>0.16</v>
+      </c>
+      <c r="J52">
+        <v>0.06</v>
+      </c>
+      <c r="K52">
+        <v>-1039.590000000004</v>
+      </c>
+      <c r="L52">
+        <v>6813</v>
+      </c>
+      <c r="M52">
+        <v>-2.819999999999993</v>
+      </c>
+      <c r="N52">
+        <v>-1042.410000000004</v>
+      </c>
+      <c r="O52">
+        <v>0.1503008953471305</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="1">
+        <v>25</v>
+      </c>
+      <c r="B53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53">
+        <v>2020</v>
+      </c>
+      <c r="E53">
+        <v>2023</v>
+      </c>
+      <c r="F53">
+        <v>30</v>
+      </c>
+      <c r="G53">
+        <v>0.7</v>
+      </c>
+      <c r="H53">
+        <v>0.12</v>
+      </c>
+      <c r="I53">
+        <v>0.2</v>
+      </c>
+      <c r="J53">
+        <v>0.16</v>
+      </c>
+      <c r="K53">
+        <v>-1049.183999999997</v>
+      </c>
+      <c r="L53">
+        <v>7423</v>
+      </c>
+      <c r="M53">
+        <v>-2.819999999999993</v>
+      </c>
+      <c r="N53">
+        <v>-1052.003999999997</v>
+      </c>
+      <c r="O53">
+        <v>0.1968206924424087</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="1">
+        <v>41</v>
+      </c>
+      <c r="B54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54">
+        <v>2020</v>
+      </c>
+      <c r="E54">
+        <v>2023</v>
+      </c>
+      <c r="F54">
+        <v>10</v>
+      </c>
+      <c r="G54">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="H54">
+        <v>0.06</v>
+      </c>
+      <c r="I54">
+        <v>0.14</v>
+      </c>
+      <c r="J54">
+        <v>0.06</v>
+      </c>
+      <c r="K54">
+        <v>-1238.324999999995</v>
+      </c>
+      <c r="L54">
+        <v>8461</v>
+      </c>
+      <c r="M54">
+        <v>-2.819999999999993</v>
+      </c>
+      <c r="N54">
+        <v>-1241.144999999995</v>
+      </c>
+      <c r="O54">
+        <v>0.1479730528306347</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="1">
+        <v>46</v>
+      </c>
+      <c r="B55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55">
+        <v>2020</v>
+      </c>
+      <c r="E55">
+        <v>2023</v>
+      </c>
+      <c r="F55">
+        <v>60</v>
+      </c>
+      <c r="G55">
+        <v>0.4</v>
+      </c>
+      <c r="H55">
+        <v>0.14</v>
+      </c>
+      <c r="I55">
+        <v>0.08</v>
+      </c>
+      <c r="J55">
+        <v>0.06</v>
+      </c>
+      <c r="K55">
+        <v>-1281.308000000009</v>
+      </c>
+      <c r="L55">
+        <v>10480</v>
+      </c>
+      <c r="M55">
+        <v>-2.819999999999993</v>
+      </c>
+      <c r="N55">
+        <v>-1284.128000000009</v>
+      </c>
+      <c r="O55">
+        <v>0.2638358778625954</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="1">
+        <v>27</v>
+      </c>
+      <c r="B56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56">
+        <v>2020</v>
+      </c>
+      <c r="E56">
+        <v>2023</v>
+      </c>
+      <c r="F56">
+        <v>60</v>
+      </c>
+      <c r="G56">
+        <v>0.5</v>
+      </c>
+      <c r="H56">
+        <v>0.06</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>-1462.429999999996</v>
+      </c>
+      <c r="L56">
+        <v>9231</v>
+      </c>
+      <c r="M56">
+        <v>-2.819999999999993</v>
+      </c>
+      <c r="N56">
+        <v>-1465.249999999996</v>
+      </c>
+      <c r="O56">
+        <v>0.1177553894485971</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="1">
+        <v>11</v>
+      </c>
+      <c r="B57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57">
+        <v>2020</v>
+      </c>
+      <c r="E57">
+        <v>2023</v>
+      </c>
+      <c r="F57">
+        <v>90</v>
+      </c>
+      <c r="G57">
+        <v>0.5</v>
+      </c>
+      <c r="H57">
+        <v>0.04</v>
+      </c>
+      <c r="I57">
+        <v>0.16</v>
+      </c>
+      <c r="J57">
+        <v>0.12</v>
+      </c>
+      <c r="K57">
+        <v>-1555.845000000002</v>
+      </c>
+      <c r="L57">
+        <v>9212</v>
+      </c>
+      <c r="M57">
+        <v>-2.819999999999993</v>
+      </c>
+      <c r="N57">
+        <v>-1558.665000000002</v>
+      </c>
+      <c r="O57">
+        <v>0.09389926183239253</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="1">
+        <v>4</v>
+      </c>
+      <c r="B58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58">
+        <v>2020</v>
+      </c>
+      <c r="E58">
+        <v>2023</v>
+      </c>
+      <c r="F58">
+        <v>60</v>
+      </c>
+      <c r="G58">
+        <v>0.4</v>
+      </c>
+      <c r="H58">
+        <v>0.08</v>
+      </c>
+      <c r="I58">
+        <v>0.2</v>
+      </c>
+      <c r="J58">
+        <v>0.18</v>
+      </c>
+      <c r="K58">
+        <v>-1577.323000000004</v>
+      </c>
+      <c r="L58">
+        <v>10480</v>
+      </c>
+      <c r="M58">
+        <v>-2.819999999999993</v>
+      </c>
+      <c r="N58">
+        <v>-1580.143000000004</v>
+      </c>
+      <c r="O58">
+        <v>0.1438931297709924</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" s="1">
+        <v>6</v>
+      </c>
+      <c r="B59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59">
+        <v>2020</v>
+      </c>
+      <c r="E59">
+        <v>2023</v>
+      </c>
+      <c r="F59">
+        <v>90</v>
+      </c>
+      <c r="G59">
+        <v>0.2</v>
+      </c>
+      <c r="H59">
+        <v>0.12</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>-1730.338000000009</v>
+      </c>
+      <c r="L59">
+        <v>13752</v>
+      </c>
+      <c r="M59">
+        <v>-6.670000000000016</v>
+      </c>
+      <c r="N59">
+        <v>-1737.008000000009</v>
+      </c>
+      <c r="O59">
+        <v>0.233347876672484</v>
       </c>
     </row>
   </sheetData>
